--- a/biology/Botanique/Grevillea_preissii/Grevillea_preissii.xlsx
+++ b/biology/Botanique/Grevillea_preissii/Grevillea_preissii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Grevillea preissii est une espèce d'arbuste de la famille des Proteaceae endémique dans les zones côtières du sud-ouest de l'Australie-Occidentale.
 Il peut mesurer 0,3 à 1,7 mètre de hauteur avec parfois des formes complètement rampantes. Il produit des fleurs orange ou rouges entre mai et octobre (du milieu de l'automne au milieu du printemps) dans son aire naturelle.
@@ -515,7 +527,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Grevillea thelemanniana subsp. preissii (Meisn.) McGill.</t>
         </is>
